--- a/ComplexNetwork1/src/result/sum.xlsx
+++ b/ComplexNetwork1/src/result/sum.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_information" sheetId="5" r:id="rId1"/>
+    <sheet name="connected component" sheetId="6" r:id="rId1"/>
     <sheet name="degree" sheetId="4" r:id="rId2"/>
     <sheet name="betweenness" sheetId="2" r:id="rId3"/>
     <sheet name="clossness" sheetId="3" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="602">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -1800,10 +1800,34 @@
     <t>[CAYZP]</t>
   </si>
   <si>
-    <t>total_vertex</t>
-  </si>
-  <si>
-    <t>total_edge</t>
+    <t>total vertices is: 592</t>
+  </si>
+  <si>
+    <t>Component 1: [USBRL, USORD, USSTL, USDEC, USJBR, USATL, USFLL, USRSW, USTPA, USMCO, USLAS, USLAX, USCVG, USMSP, USDTW, USMSY, USJFK, USLGA, USBOS, USCGI, USIRK, USMWA, USOWB, USTBN, USUIN, USCLT, USPHL, USDFW, USPHX, USDCA, USMIA, USPIT, USBNA, USSAN, USSEA, USBWI, USCLE, USCMH, USDEN, USEWR, USIAD, USIAH, USLIT, USMCI, USMKE, USOMA, USRDU, USSAT, USSFO, USSLC, CAYYZ, USGRR, USHOU, USOKC, USTUL, USDAL, USECP, USMDW, USJAX, USGSP, USMEM, USALB, USABQ, USAMA, USAUS, USBDL, USBHM, USBUF, USPDX, USROC, USCHS, USDSM, USJAN, USMHT, USORF, USPVD, USSDF, USSMF, USICT, USONT, USRNO, USSJC, USTUS, USOAK, CAYTZ, USTTN, USILG, USLUK, USMBL, USMMU, USIND, CAYUL, CAYQB, CAYOW, USMYR, CAYAM, CAYQG, CAYQT, CAYSB, CAYTS, CAYYU, CAYMO, CAYFA, CAYKQ, CAYVO, CAYMT, CAZEM, CAYNC, CAYUY, CAYHU, CAYZV, CAYBG, CAYWK, CAYKL, CAYBC, CAYYY, CAYYR, CAYVB, CAYCL, CAZUM, CAYHZ, CAYYC, CAYDF, CAYYT, CAYFC, CAYQM, CAYQX, CAYQY, CAYSJ, CAYYG, CAYHM, CAYEG, CAYXY, CAYLW, CAYVR, CAYZF, CAYWG, CAYHY, CAYQQ, CAYYJ, CAYOJ, CAYOP, CAYXJ, USPSP, CAYMM, CAYQR, CAYXE, CAYQU, CAYSM, CAYXX, CAYPY, CAYQF, USBLI, USHNL, USANC, USHND, USADQ, USANI, USADK, USAKN, USAKK, CAYYE, CAYXS, CAYKA, CAYXT, CAYYD, CAYDQ, CAYBL, CAYSK, CAYRT, CAYYQ, CAYTH, CAYXU, CAYQK, CAYFO, CAYQD, CAYRL, CAYGX, CAYHD, CAYXL, CAYPM, CAYVZ, CAZSJ, CAYAG, CAYAC, CAZRJ, CAYAX, CAYTL, CAYER, CAZPB, CAYEK, CAYXN, CAYBK, CAYCS, CAYUT, CAYZS, CAYTE, CAYFB, CAYVP, CAYCY, CAYGT, CAYUX, CAYXP, CAYLC, CAYVM, CAYIO, CAYPX, CAYGW, CAYPH, CAYKG, CAYTQ, CAYGL, USAKV, CAYIK, CAYZG, CAYCB, CAYCO, CAYYH, CAYVQ, CAYHK, CAYFS, CAYFJ, CAYRA, CAYSG, CAYWJ, CAZFN, CAYEV, CAYGH, CAYHI, CAYPC, CAYSY, CAYUB, CAZFM, CAYXC, CAYPW, CAYWL, CAYZT, CAZMT, CAYQZ, USSNA, CAYCD, CAYCG, CAYPR, CAYYF, CAYZP, USISP, USPBI, USPGD, USCID, USFWA, USLEX, USTYS, USABE, USAVL, USPIA, USSGF, USSPI, USTOL, USSBN, USIAG, USRFD, USYNG, USPIE, USSFB, USCHA, USGSO, USLAN, USROA, USXNA, USGFK, USMDT, USAVP, USBGR, USBMI, USBTV, USHTS, USPHF, USTRI, USFAR, USFSD, USMLI, USELM, USATW, USPBG, USBIS, USBLV, USCKB, USHGR, USLCK, USPSM, USMGW, USTVF, USSYR, USSWF, USHPN, USACK, USEWB, USHYA, USMVY, USLEB, USTEB, CAYAY, CAYJT, CAYBX, CAYIF, CAYHR, CAYNA, CAYLL, CAYKF, CAYQL, CAYXH, CAYBR, CAYGR, CAZBF, CAYGP, CAYDP, CAYGV, CAYPN, CAZKE, CAYAT, CAYPO, CAYYB, CAYFH, CAYWP, CAYPL, CAYLH, USCRW, USACY, USLBE, USAMM, USHOG, USALG, USCZL, USADE, USASM, USBOI, USBUR, USEUG, USGEG, USLGB, USPVU, USIPL, USLWS, USPUW, USACV, USCEC, USBIL, USFAT, USMFR, USRDM, USSTS, USSBA, USMSO, USPSC, USOTH, USPDT, USLMT, USGDV, USGGW, USHVR, USOLF, USSDY, USELP, USLBB, USHRL, USMAF, USCRP, USCNM, USLAM, USMSS, USOGS, USMKL, USELD, USHOT, USHRO, USPNS, USANU, CAYGK, CAYZR, USGEO, USCOS, USGJT, USMSN, USRAP, USBZN, USGTF, USHLN, USBTM, USCDC, USCNY, USCOD, USCPR, USEKO, USGCC, USRKS, USIDA, USJAC, USPIH, USSGU, USTWF, USVEL, USBFL, USMRY, USSBP, USCIC, USMOD, USRDD, USSLN, USAEX, USRIC, USBRO, USCAE, USCLL, USGPT, USHSV, USMOB, USSAV, USVPS, USGRK, USLCH, USLFT, USLRD, USMFE, USMLU, USSHV, USTYR, USVCT, USHOB, USLWB, USBGM, USCHO, USDAY, USFAY, USPWM, USLNS, USAOO, USJST, USBKW, USSHD, USITH, USCAK, USDRO, USSAF, USDIK, USISN, USLNK, USMOT, USAIA, USCDR, USALS, USFMN, USPIR, USCYS, USDDC, USLBL, USPGA, USASE, USEGE, USGUC, USHDN, USLAR, USMTJ, USPUB, USBFF, USCEZ, USLBF, USMCK, USRIW, USSHR, USGCN, USWRL, USATY, USHON, USSOW, USERI, USFNT, USBFD, USJHW, USDUJ, USFKL, USPKB, USALW, USEAT, USYKM, USAHN, USEYW, USGNV, USTLH, USAPF, USAGS, USILM, USOAJ, USSRQ, USFLG, USEVV, USABI, USACT, USBPT, USMGM, USCMI, USCOU, USFSM, USGCK, USGGG, USGRI, USJLN, USLAW, USMHK, USROW, USSJT, USSPS, USTXK, USART, USSBY, USHVN, USIPT, USDAB, USEWN, USFLO, USLYH, USMLB, USPGV, USAUG, USBHB, USPVC, USRKD, USRUT, USSLK, USPQI, USAZO, USMBS, USCWA, USGRB, USMQT, USTVC, USAPN, USCIU, USESC, USPLN, USLSE, USRST, USABR, USBJI, USBRD, USINL, USDLH, USHIB, USIMT, USRHI, USMMH, USSMX, USMCE, USPRC, USVIS, USSCK, USMCN, USORH, USMEI, USMSL, USPIB, USTUP, USABY, USBQK, USCSG, USDHN, USGTR, USVLD, USGLH, USALO, USDBQ, USSUX, USCMX, USEAU, USFOE, USMKG, USPAH, USSTC]</t>
+  </si>
+  <si>
+    <t>Component 2: [CAYGZ, CAYRB]</t>
+  </si>
+  <si>
+    <t>Component 3: [USDVO, CAZAM]</t>
+  </si>
+  <si>
+    <t>Component 4: [USAIN, USATK]</t>
+  </si>
+  <si>
+    <t>Component 5: [USACR, USLCR]</t>
+  </si>
+  <si>
+    <t>Component 6: [USACE, USHHN, USAHO]</t>
+  </si>
+  <si>
+    <t>Component 7: [USLHW, CAYZY]</t>
+  </si>
+  <si>
+    <t>Component 8: [USBFI, USCLM]</t>
+  </si>
+  <si>
+    <t>total edges is: 3052</t>
   </si>
 </sst>
 </file>
@@ -2120,33 +2144,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F96B94-169B-4680-8FF4-86A658AD099F}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234C4813-DCE0-41CA-B7F3-A15B3E3610AC}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>592</v>
       </c>
-      <c r="B1">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>593</v>
       </c>
-      <c r="B2">
-        <v>11616</v>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1586A272-A7B3-4336-B609-F22EC71BAD26}">
   <dimension ref="A1:B592"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/ComplexNetwork1/src/result/sum.xlsx
+++ b/ComplexNetwork1/src/result/sum.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="6" r:id="rId1"/>
     <sheet name="degree" sheetId="4" r:id="rId2"/>
     <sheet name="betweenness" sheetId="2" r:id="rId3"/>
-    <sheet name="clossness" sheetId="3" r:id="rId4"/>
-    <sheet name="Information" sheetId="7" r:id="rId5"/>
+    <sheet name="density" sheetId="8" r:id="rId4"/>
+    <sheet name="clustering coefficient" sheetId="9" r:id="rId5"/>
+    <sheet name="clossness" sheetId="3" r:id="rId6"/>
+    <sheet name="Information" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="1200">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -1841,6 +1843,1788 @@
   </si>
   <si>
     <t>Airports</t>
+  </si>
+  <si>
+    <t>density: 0.017446380390542828</t>
+  </si>
+  <si>
+    <t>the average clustering coefficient is: 0.48204334679682737</t>
+  </si>
+  <si>
+    <t>CAYWK: 0.3090909090909091</t>
+  </si>
+  <si>
+    <t>CAYWJ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYWG: 0.2766798418972332</t>
+  </si>
+  <si>
+    <t>USHOU: 0.4423758865248227</t>
+  </si>
+  <si>
+    <t>USSEA: 0.30774774774774777</t>
+  </si>
+  <si>
+    <t>USUIN: 0.0</t>
+  </si>
+  <si>
+    <t>USCEZ: 0.0</t>
+  </si>
+  <si>
+    <t>USHOG: 1.0</t>
+  </si>
+  <si>
+    <t>USCEC: 1.0</t>
+  </si>
+  <si>
+    <t>USJST: 1.0</t>
+  </si>
+  <si>
+    <t>USHOT: 1.0</t>
+  </si>
+  <si>
+    <t>CAYWP: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USMYR: 0.39920948616600793</t>
+  </si>
+  <si>
+    <t>USHON: 0.0</t>
+  </si>
+  <si>
+    <t>USFKL: 1.0</t>
+  </si>
+  <si>
+    <t>USSDY: 0.0</t>
+  </si>
+  <si>
+    <t>USLWS: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYWL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXL: 0.15151515151515152</t>
+  </si>
+  <si>
+    <t>USRDD: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXJ: 0.6</t>
+  </si>
+  <si>
+    <t>CAYXH: 0.0</t>
+  </si>
+  <si>
+    <t>USVLD: 0.0</t>
+  </si>
+  <si>
+    <t>USGNV: 0.9</t>
+  </si>
+  <si>
+    <t>USSFB: 0.004432624113475178</t>
+  </si>
+  <si>
+    <t>USABQ: 0.7075098814229249</t>
+  </si>
+  <si>
+    <t>CAYXE: 1.0</t>
+  </si>
+  <si>
+    <t>USABR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXC: 1.0</t>
+  </si>
+  <si>
+    <t>USLYH: 0.0</t>
+  </si>
+  <si>
+    <t>USRDM: 1.0</t>
+  </si>
+  <si>
+    <t>USSFO: 0.338018018018018</t>
+  </si>
+  <si>
+    <t>USABY: 0.0</t>
+  </si>
+  <si>
+    <t>USIRK: 0.0</t>
+  </si>
+  <si>
+    <t>USABE: 0.4166666666666667</t>
+  </si>
+  <si>
+    <t>CAYXY: 0.8</t>
+  </si>
+  <si>
+    <t>CAYXX: 1.0</t>
+  </si>
+  <si>
+    <t>USFLG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXT: 1.0</t>
+  </si>
+  <si>
+    <t>USBDL: 0.87</t>
+  </si>
+  <si>
+    <t>USDHN: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXS: 0.39285714285714285</t>
+  </si>
+  <si>
+    <t>USFLL: 0.480225988700565</t>
+  </si>
+  <si>
+    <t>CAYXP: 0.0</t>
+  </si>
+  <si>
+    <t>USHPN: 0.44166666666666665</t>
+  </si>
+  <si>
+    <t>CAYXN: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USABI: 0.0</t>
+  </si>
+  <si>
+    <t>USFLO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYUB: 0.0</t>
+  </si>
+  <si>
+    <t>USTEB: 0.0</t>
+  </si>
+  <si>
+    <t>USSCK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYTZ: 0.2948717948717949</t>
+  </si>
+  <si>
+    <t>USDEC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYUY: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USLUK: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYUX: 1.0</t>
+  </si>
+  <si>
+    <t>USEGE: 0.0</t>
+  </si>
+  <si>
+    <t>CAYUT: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USSBN: 0.35714285714285715</t>
+  </si>
+  <si>
+    <t>USSBP: 1.0</t>
+  </si>
+  <si>
+    <t>USSBY: 1.0</t>
+  </si>
+  <si>
+    <t>USDEN: 0.1369969040247678</t>
+  </si>
+  <si>
+    <t>CAYUL: 0.2768627450980392</t>
+  </si>
+  <si>
+    <t>USDFW: 0.15704154002026344</t>
+  </si>
+  <si>
+    <t>USSDF: 0.9209486166007905</t>
+  </si>
+  <si>
+    <t>USCDR: 1.0</t>
+  </si>
+  <si>
+    <t>CAYVB: 0.4</t>
+  </si>
+  <si>
+    <t>USHOB: 0.0</t>
+  </si>
+  <si>
+    <t>USLWB: 1.0</t>
+  </si>
+  <si>
+    <t>USCDC: 0.0</t>
+  </si>
+  <si>
+    <t>CAYVZ: 1.0</t>
+  </si>
+  <si>
+    <t>USGLH: 0.0</t>
+  </si>
+  <si>
+    <t>USIPL: 0.0</t>
+  </si>
+  <si>
+    <t>USHND: 1.0</t>
+  </si>
+  <si>
+    <t>USVIS: 0.0</t>
+  </si>
+  <si>
+    <t>USRAP: 1.0</t>
+  </si>
+  <si>
+    <t>CAYVR: 0.2151360544217687</t>
+  </si>
+  <si>
+    <t>CAYVQ: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USXNA: 0.8351648351648352</t>
+  </si>
+  <si>
+    <t>CAYVP: 0.10714285714285714</t>
+  </si>
+  <si>
+    <t>USIPT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYVO: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USHNL: 0.7391304347826086</t>
+  </si>
+  <si>
+    <t>CAYVM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSB: 0.6</t>
+  </si>
+  <si>
+    <t>USIMT: 1.0</t>
+  </si>
+  <si>
+    <t>USSAF: 1.0</t>
+  </si>
+  <si>
+    <t>USDCA: 0.3045977011494253</t>
+  </si>
+  <si>
+    <t>USLSE: 1.0</t>
+  </si>
+  <si>
+    <t>USTBN: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSM: 0.5</t>
+  </si>
+  <si>
+    <t>USCAK: 0.9818181818181818</t>
+  </si>
+  <si>
+    <t>CAZUM: 1.0</t>
+  </si>
+  <si>
+    <t>CAYSK: 0.0</t>
+  </si>
+  <si>
+    <t>USCAE: 0.9777777777777777</t>
+  </si>
+  <si>
+    <t>CAYSJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYTH: 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>USSBA: 1.0</t>
+  </si>
+  <si>
+    <t>USYNG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYTE: 0.0</t>
+  </si>
+  <si>
+    <t>USMVY: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USGJT: 1.0</t>
+  </si>
+  <si>
+    <t>USMWA: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSY: 1.0</t>
+  </si>
+  <si>
+    <t>USDDC: 1.0</t>
+  </si>
+  <si>
+    <t>USIND: 0.8446969696969697</t>
+  </si>
+  <si>
+    <t>CAYTS: 0.4</t>
+  </si>
+  <si>
+    <t>USSAN: 0.5657142857142857</t>
+  </si>
+  <si>
+    <t>CAYTQ: 0.0</t>
+  </si>
+  <si>
+    <t>USHLN: 1.0</t>
+  </si>
+  <si>
+    <t>USSAT: 0.7816091954022989</t>
+  </si>
+  <si>
+    <t>CAYTL: 1.0</t>
+  </si>
+  <si>
+    <t>USINL: 1.0</t>
+  </si>
+  <si>
+    <t>USSAV: 0.9358974358974359</t>
+  </si>
+  <si>
+    <t>USECP: 1.0</t>
+  </si>
+  <si>
+    <t>USMSY: 0.8097165991902834</t>
+  </si>
+  <si>
+    <t>CAYQD: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQB: 0.27941176470588236</t>
+  </si>
+  <si>
+    <t>USDAL: 0.34782608695652173</t>
+  </si>
+  <si>
+    <t>USYKM: 0.0</t>
+  </si>
+  <si>
+    <t>USDAY: 0.95</t>
+  </si>
+  <si>
+    <t>USVEL: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPY: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPX: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>CAYPW: 0.0</t>
+  </si>
+  <si>
+    <t>USGGW: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQT: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USDAB: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQR: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQQ: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USHIB: 0.0</t>
+  </si>
+  <si>
+    <t>USMSP: 0.1944662995017047</t>
+  </si>
+  <si>
+    <t>CAYQM: 0.7142857142857143</t>
+  </si>
+  <si>
+    <t>CAYQL: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQK: 0.0</t>
+  </si>
+  <si>
+    <t>USMSS: 0.0</t>
+  </si>
+  <si>
+    <t>USMSL: 0.0</t>
+  </si>
+  <si>
+    <t>CAZSJ: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>USGGG: 0.0</t>
+  </si>
+  <si>
+    <t>USMSN: 0.9636363636363636</t>
+  </si>
+  <si>
+    <t>CAYQG: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYQF: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USMSO: 1.0</t>
+  </si>
+  <si>
+    <t>USDBQ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRA: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQZ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQY: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQX: 1.0</t>
+  </si>
+  <si>
+    <t>USMTJ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRT: 0.18181818181818182</t>
+  </si>
+  <si>
+    <t>USILG: 0.8666666666666667</t>
+  </si>
+  <si>
+    <t>USLRD: 1.0</t>
+  </si>
+  <si>
+    <t>USILM: 1.0</t>
+  </si>
+  <si>
+    <t>CAYRL: 0.4</t>
+  </si>
+  <si>
+    <t>USMAF: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USBKW: 1.0</t>
+  </si>
+  <si>
+    <t>USCMX: 0.0</t>
+  </si>
+  <si>
+    <t>USTOL: 0.0</t>
+  </si>
+  <si>
+    <t>USRKS: 1.0</t>
+  </si>
+  <si>
+    <t>USERI: 1.0</t>
+  </si>
+  <si>
+    <t>CAYOP: 1.0</t>
+  </si>
+  <si>
+    <t>USCMH: 0.8487903225806451</t>
+  </si>
+  <si>
+    <t>USCMI: 1.0</t>
+  </si>
+  <si>
+    <t>USFSM: 1.0</t>
+  </si>
+  <si>
+    <t>USPGA: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USRKD: 0.0</t>
+  </si>
+  <si>
+    <t>CAYOJ: 1.0</t>
+  </si>
+  <si>
+    <t>USSMF: 0.6894586894586895</t>
+  </si>
+  <si>
+    <t>USPGD: 0.0</t>
+  </si>
+  <si>
+    <t>USAIN: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPC: 0.0</t>
+  </si>
+  <si>
+    <t>USPHL: 0.2993311036789298</t>
+  </si>
+  <si>
+    <t>USESC: 0.0</t>
+  </si>
+  <si>
+    <t>USPHF: 0.6</t>
+  </si>
+  <si>
+    <t>USCNY: 0.0</t>
+  </si>
+  <si>
+    <t>USHYA: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYOW: 0.39855072463768115</t>
+  </si>
+  <si>
+    <t>USMBL: 0.0</t>
+  </si>
+  <si>
+    <t>USCOD: 1.0</t>
+  </si>
+  <si>
+    <t>USCNM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPR: 0.0</t>
+  </si>
+  <si>
+    <t>USTPA: 0.4642857142857143</t>
+  </si>
+  <si>
+    <t>USSMX: 1.0</t>
+  </si>
+  <si>
+    <t>USPGV: 0.0</t>
+  </si>
+  <si>
+    <t>USBLI: 0.8928571428571429</t>
+  </si>
+  <si>
+    <t>CAYPO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPN: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPM: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>CAYPL: 1.0</t>
+  </si>
+  <si>
+    <t>USBLV: 0.0</t>
+  </si>
+  <si>
+    <t>CAZRJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPH: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USSNA: 0.7602339181286549</t>
+  </si>
+  <si>
+    <t>CAYLW: 0.509090909090909</t>
+  </si>
+  <si>
+    <t>USCLE: 0.5150244584206848</t>
+  </si>
+  <si>
+    <t>USGTF: 0.9333333333333333</t>
+  </si>
+  <si>
+    <t>USGSO: 0.7142857142857143</t>
+  </si>
+  <si>
+    <t>USGSP: 0.6368421052631579</t>
+  </si>
+  <si>
+    <t>USPDX: 0.3824915824915825</t>
+  </si>
+  <si>
+    <t>CAYMO: 0.0</t>
+  </si>
+  <si>
+    <t>USBIL: 0.2727272727272727</t>
+  </si>
+  <si>
+    <t>CAYMM: 0.5238095238095238</t>
+  </si>
+  <si>
+    <t>USPDT: 0.0</t>
+  </si>
+  <si>
+    <t>USRIC: 0.9607843137254902</t>
+  </si>
+  <si>
+    <t>USBIS: 0.5</t>
+  </si>
+  <si>
+    <t>USAGS: 1.0</t>
+  </si>
+  <si>
+    <t>USSLK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYNA: 0.0</t>
+  </si>
+  <si>
+    <t>CAZPB: 0.0</t>
+  </si>
+  <si>
+    <t>USSLN: 0.0</t>
+  </si>
+  <si>
+    <t>USGUC: 0.0</t>
+  </si>
+  <si>
+    <t>USFSD: 0.5357142857142857</t>
+  </si>
+  <si>
+    <t>CAYMT: 0.0</t>
+  </si>
+  <si>
+    <t>USAIA: 1.0</t>
+  </si>
+  <si>
+    <t>USCLL: 1.0</t>
+  </si>
+  <si>
+    <t>USHVR: 0.0</t>
+  </si>
+  <si>
+    <t>USCLM: 0.0</t>
+  </si>
+  <si>
+    <t>USGTR: 0.0</t>
+  </si>
+  <si>
+    <t>USHVN: 0.0</t>
+  </si>
+  <si>
+    <t>USRIW: 0.0</t>
+  </si>
+  <si>
+    <t>USBJI: 0.0</t>
+  </si>
+  <si>
+    <t>USSLC: 0.24186046511627907</t>
+  </si>
+  <si>
+    <t>USCLT: 0.23053410553410553</t>
+  </si>
+  <si>
+    <t>USAHN: 0.0</t>
+  </si>
+  <si>
+    <t>USAHO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYNC: 0.0</t>
+  </si>
+  <si>
+    <t>USAEX: 1.0</t>
+  </si>
+  <si>
+    <t>USCIU: 0.0</t>
+  </si>
+  <si>
+    <t>USBHB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYJT: 1.0</t>
+  </si>
+  <si>
+    <t>USGRB: 1.0</t>
+  </si>
+  <si>
+    <t>USOAJ: 1.0</t>
+  </si>
+  <si>
+    <t>USOAK: 0.5394088669950738</t>
+  </si>
+  <si>
+    <t>CAYKL: 0.5</t>
+  </si>
+  <si>
+    <t>USCID: 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>USSHV: 1.0</t>
+  </si>
+  <si>
+    <t>CAYKG: 0.0</t>
+  </si>
+  <si>
+    <t>USHSV: 0.9722222222222222</t>
+  </si>
+  <si>
+    <t>CAYKF: 1.0</t>
+  </si>
+  <si>
+    <t>USBGR: 0.4</t>
+  </si>
+  <si>
+    <t>CAYKA: 1.0</t>
+  </si>
+  <si>
+    <t>USBGM: 1.0</t>
+  </si>
+  <si>
+    <t>USRHI: 1.0</t>
+  </si>
+  <si>
+    <t>USTLH: 0.9523809523809523</t>
+  </si>
+  <si>
+    <t>USWRL: 0.0</t>
+  </si>
+  <si>
+    <t>USCKB: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USSJT: 0.0</t>
+  </si>
+  <si>
+    <t>CAZMT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYKQ: 0.0</t>
+  </si>
+  <si>
+    <t>USVPS: 1.0</t>
+  </si>
+  <si>
+    <t>CAYLL: 0.0</t>
+  </si>
+  <si>
+    <t>USGRI: 1.0</t>
+  </si>
+  <si>
+    <t>USGRK: 1.0</t>
+  </si>
+  <si>
+    <t>USDLH: 1.0</t>
+  </si>
+  <si>
+    <t>CAYLH: 0.0</t>
+  </si>
+  <si>
+    <t>USSJC: 0.7427536231884058</t>
+  </si>
+  <si>
+    <t>CAYLC: 0.0</t>
+  </si>
+  <si>
+    <t>USBHM: 0.8245614035087719</t>
+  </si>
+  <si>
+    <t>USHTS: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USGRR: 0.7660818713450293</t>
+  </si>
+  <si>
+    <t>USACT: 0.0</t>
+  </si>
+  <si>
+    <t>USSGF: 0.35714285714285715</t>
+  </si>
+  <si>
+    <t>CAYHZ: 0.3246753246753247</t>
+  </si>
+  <si>
+    <t>USACV: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYHY: 1.0</t>
+  </si>
+  <si>
+    <t>USACR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYHU: 0.5</t>
+  </si>
+  <si>
+    <t>USCHA: 0.5357142857142857</t>
+  </si>
+  <si>
+    <t>CAYHR: 0.0</t>
+  </si>
+  <si>
+    <t>USITH: 1.0</t>
+  </si>
+  <si>
+    <t>USELD: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USACY: 0.8055555555555556</t>
+  </si>
+  <si>
+    <t>USPAH: 0.0</t>
+  </si>
+  <si>
+    <t>CAYHM: 0.5</t>
+  </si>
+  <si>
+    <t>USRDU: 0.8423423423423423</t>
+  </si>
+  <si>
+    <t>USACE: 0.0</t>
+  </si>
+  <si>
+    <t>CAYIK: 0.0</t>
+  </si>
+  <si>
+    <t>USISN: 1.0</t>
+  </si>
+  <si>
+    <t>USCGI: 0.0</t>
+  </si>
+  <si>
+    <t>CAYIF: 0.0</t>
+  </si>
+  <si>
+    <t>CAZKE: 0.0</t>
+  </si>
+  <si>
+    <t>USISP: 0.5636363636363636</t>
+  </si>
+  <si>
+    <t>USDIK: 1.0</t>
+  </si>
+  <si>
+    <t>USFMN: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USACK: 0.4</t>
+  </si>
+  <si>
+    <t>USEKO: 0.0</t>
+  </si>
+  <si>
+    <t>USPBG: 0.3</t>
+  </si>
+  <si>
+    <t>USADQ: 0.0</t>
+  </si>
+  <si>
+    <t>USCHS: 0.8894736842105263</t>
+  </si>
+  <si>
+    <t>USSHD: 1.0</t>
+  </si>
+  <si>
+    <t>USRFD: 0.0</t>
+  </si>
+  <si>
+    <t>USFOE: 0.0</t>
+  </si>
+  <si>
+    <t>USCIC: 0.0</t>
+  </si>
+  <si>
+    <t>USSHR: 0.0</t>
+  </si>
+  <si>
+    <t>USPBI: 0.7894736842105263</t>
+  </si>
+  <si>
+    <t>CAYIO: 0.0</t>
+  </si>
+  <si>
+    <t>USHRL: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USADE: 0.0</t>
+  </si>
+  <si>
+    <t>USBFF: 0.0</t>
+  </si>
+  <si>
+    <t>USHRO: 1.0</t>
+  </si>
+  <si>
+    <t>USBFI: 0.0</t>
+  </si>
+  <si>
+    <t>USBFD: 1.0</t>
+  </si>
+  <si>
+    <t>USSGU: 1.0</t>
+  </si>
+  <si>
+    <t>USCHO: 1.0</t>
+  </si>
+  <si>
+    <t>USGPT: 1.0</t>
+  </si>
+  <si>
+    <t>USFNT: 0.9642857142857143</t>
+  </si>
+  <si>
+    <t>USELM: 0.3</t>
+  </si>
+  <si>
+    <t>USBFL: 1.0</t>
+  </si>
+  <si>
+    <t>USADK: 0.0</t>
+  </si>
+  <si>
+    <t>USELP: 0.8589743589743589</t>
+  </si>
+  <si>
+    <t>USRST: 1.0</t>
+  </si>
+  <si>
+    <t>USCVG: 0.6448202959830867</t>
+  </si>
+  <si>
+    <t>USIAG: 0.1</t>
+  </si>
+  <si>
+    <t>USIAH: 0.2393772893772894</t>
+  </si>
+  <si>
+    <t>CAYFS: 0.0</t>
+  </si>
+  <si>
+    <t>USBTM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYFO: 1.0</t>
+  </si>
+  <si>
+    <t>USRSW: 0.655241935483871</t>
+  </si>
+  <si>
+    <t>USSUX: 0.0</t>
+  </si>
+  <si>
+    <t>CAYGK: 0.0</t>
+  </si>
+  <si>
+    <t>USEYW: 0.7857142857142857</t>
+  </si>
+  <si>
+    <t>USOMA: 0.9368421052631579</t>
+  </si>
+  <si>
+    <t>USTWF: 0.0</t>
+  </si>
+  <si>
+    <t>USMIA: 0.5341074020319303</t>
+  </si>
+  <si>
+    <t>CAYGH: 1.0</t>
+  </si>
+  <si>
+    <t>USIAD: 0.30206540447504304</t>
+  </si>
+  <si>
+    <t>USLGA: 0.3491048593350384</t>
+  </si>
+  <si>
+    <t>USLGB: 0.8939393939393939</t>
+  </si>
+  <si>
+    <t>CAYGZ: 0.0</t>
+  </si>
+  <si>
+    <t>USBUF: 0.9315789473684211</t>
+  </si>
+  <si>
+    <t>USASE: 1.0</t>
+  </si>
+  <si>
+    <t>USONT: 0.8974358974358975</t>
+  </si>
+  <si>
+    <t>CAYGX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGW: 0.26666666666666666</t>
+  </si>
+  <si>
+    <t>CAYGV: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGT: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYGR: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USLHW: 0.0</t>
+  </si>
+  <si>
+    <t>USASM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYGP: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGL: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYHK: 1.0</t>
+  </si>
+  <si>
+    <t>USART: 1.0</t>
+  </si>
+  <si>
+    <t>USBTV: 0.7111111111111111</t>
+  </si>
+  <si>
+    <t>CAYHI: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYHD: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USCWA: 1.0</t>
+  </si>
+  <si>
+    <t>USTXK: 0.0</t>
+  </si>
+  <si>
+    <t>USTUS: 0.9666666666666667</t>
+  </si>
+  <si>
+    <t>USMGM: 1.0</t>
+  </si>
+  <si>
+    <t>USBRD: 1.0</t>
+  </si>
+  <si>
+    <t>USTUP: 0.0</t>
+  </si>
+  <si>
+    <t>CAYDQ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYDP: 0.0</t>
+  </si>
+  <si>
+    <t>USBRL: 1.0</t>
+  </si>
+  <si>
+    <t>USDVO: 0.0</t>
+  </si>
+  <si>
+    <t>CAZFN: 0.0</t>
+  </si>
+  <si>
+    <t>USMGW: 1.0</t>
+  </si>
+  <si>
+    <t>CAZFM: 0.0</t>
+  </si>
+  <si>
+    <t>USJAN: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>USAPF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYEG: 0.31907308377896615</t>
+  </si>
+  <si>
+    <t>USEWR: 0.36115892139988526</t>
+  </si>
+  <si>
+    <t>USAOO: 1.0</t>
+  </si>
+  <si>
+    <t>USTUL: 0.738562091503268</t>
+  </si>
+  <si>
+    <t>USJAC: 1.0</t>
+  </si>
+  <si>
+    <t>USOKC: 0.7489177489177489</t>
+  </si>
+  <si>
+    <t>USLEB: 0.0</t>
+  </si>
+  <si>
+    <t>USSTS: 1.0</t>
+  </si>
+  <si>
+    <t>USPNS: 0.9272727272727272</t>
+  </si>
+  <si>
+    <t>CAYEV: 0.09523809523809523</t>
+  </si>
+  <si>
+    <t>USMHK: 1.0</t>
+  </si>
+  <si>
+    <t>CAYER: 1.0</t>
+  </si>
+  <si>
+    <t>USJBR: 0.0</t>
+  </si>
+  <si>
+    <t>USLFT: 1.0</t>
+  </si>
+  <si>
+    <t>CAYEK: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USMHT: 0.9120879120879121</t>
+  </si>
+  <si>
+    <t>CAYFJ: 0.0</t>
+  </si>
+  <si>
+    <t>USSTC: 0.0</t>
+  </si>
+  <si>
+    <t>USTVF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYFH: 0.0</t>
+  </si>
+  <si>
+    <t>USLEX: 0.5769230769230769</t>
+  </si>
+  <si>
+    <t>USBRO: 1.0</t>
+  </si>
+  <si>
+    <t>USAPN: 1.0</t>
+  </si>
+  <si>
+    <t>USJAX: 0.9094202898550725</t>
+  </si>
+  <si>
+    <t>USTVC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYFC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYFB: 0.027777777777777776</t>
+  </si>
+  <si>
+    <t>USSTL: 0.5006265664160401</t>
+  </si>
+  <si>
+    <t>CAYFA: 0.0</t>
+  </si>
+  <si>
+    <t>USOLF: 0.0</t>
+  </si>
+  <si>
+    <t>USLCK: 0.0</t>
+  </si>
+  <si>
+    <t>USMEM: 0.6673387096774194</t>
+  </si>
+  <si>
+    <t>CAYBR: 0.0</t>
+  </si>
+  <si>
+    <t>USMEI: 0.0</t>
+  </si>
+  <si>
+    <t>USLCH: 1.0</t>
+  </si>
+  <si>
+    <t>USROW: 0.0</t>
+  </si>
+  <si>
+    <t>USLCR: 0.0</t>
+  </si>
+  <si>
+    <t>USANI: 0.0</t>
+  </si>
+  <si>
+    <t>CAYBL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYBK: 0.5</t>
+  </si>
+  <si>
+    <t>USANC: 0.4835164835164835</t>
+  </si>
+  <si>
+    <t>CAYBG: 0.8</t>
+  </si>
+  <si>
+    <t>CAYCG: 1.0</t>
+  </si>
+  <si>
+    <t>USROA: 0.5833333333333334</t>
+  </si>
+  <si>
+    <t>CAYCD: 1.0</t>
+  </si>
+  <si>
+    <t>USDSM: 0.6176470588235294</t>
+  </si>
+  <si>
+    <t>CAYCB: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USMDW: 0.3749434644957033</t>
+  </si>
+  <si>
+    <t>USAMM: 0.4</t>
+  </si>
+  <si>
+    <t>USBOS: 0.3715315315315315</t>
+  </si>
+  <si>
+    <t>USROC: 0.9215686274509803</t>
+  </si>
+  <si>
+    <t>USPKB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYBX: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USSRQ: 0.9333333333333333</t>
+  </si>
+  <si>
+    <t>USPLN: 0.0</t>
+  </si>
+  <si>
+    <t>CAYCS: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USTTN: 0.8589743589743589</t>
+  </si>
+  <si>
+    <t>USEWB: 1.0</t>
+  </si>
+  <si>
+    <t>CAYCO: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USEWN: 1.0</t>
+  </si>
+  <si>
+    <t>USBQK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYCL: 0.0</t>
+  </si>
+  <si>
+    <t>CAZEM: 0.0</t>
+  </si>
+  <si>
+    <t>USCSG: 0.0</t>
+  </si>
+  <si>
+    <t>USMFR: 1.0</t>
+  </si>
+  <si>
+    <t>USDUJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYDF: 0.6</t>
+  </si>
+  <si>
+    <t>USEVV: 1.0</t>
+  </si>
+  <si>
+    <t>USCRP: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USMFE: 1.0</t>
+  </si>
+  <si>
+    <t>USBPT: 0.0</t>
+  </si>
+  <si>
+    <t>USDTW: 0.2184407796101949</t>
+  </si>
+  <si>
+    <t>CAYCY: 0.0</t>
+  </si>
+  <si>
+    <t>USCRW: 0.9166666666666666</t>
+  </si>
+  <si>
+    <t>USANU: 0.9</t>
+  </si>
+  <si>
+    <t>USMCI: 0.7177700348432056</t>
+  </si>
+  <si>
+    <t>USBNA: 0.6614246068455134</t>
+  </si>
+  <si>
+    <t>USMCK: 0.0</t>
+  </si>
+  <si>
+    <t>USPIH: 0.0</t>
+  </si>
+  <si>
+    <t>USMCE: 0.0</t>
+  </si>
+  <si>
+    <t>USOGS: 0.0</t>
+  </si>
+  <si>
+    <t>USPIT: 0.8787878787878788</t>
+  </si>
+  <si>
+    <t>USSOW: 0.0</t>
+  </si>
+  <si>
+    <t>USALG: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USLAR: 0.0</t>
+  </si>
+  <si>
+    <t>USALB: 0.7602339181286549</t>
+  </si>
+  <si>
+    <t>USMCN: 1.0</t>
+  </si>
+  <si>
+    <t>USLAM: 0.0</t>
+  </si>
+  <si>
+    <t>USMCO: 0.360126582278481</t>
+  </si>
+  <si>
+    <t>USLAN: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAZBF: 0.0</t>
+  </si>
+  <si>
+    <t>USPIR: 0.0</t>
+  </si>
+  <si>
+    <t>USAKN: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAC: 1.0</t>
+  </si>
+  <si>
+    <t>USMBS: 1.0</t>
+  </si>
+  <si>
+    <t>USBMI: 0.75</t>
+  </si>
+  <si>
+    <t>USPHX: 0.3810663021189337</t>
+  </si>
+  <si>
+    <t>USAKK: 0.0</t>
+  </si>
+  <si>
+    <t>USAKV: 0.0</t>
+  </si>
+  <si>
+    <t>USPIE: 0.0</t>
+  </si>
+  <si>
+    <t>USCOS: 0.9818181818181818</t>
+  </si>
+  <si>
+    <t>USPIA: 0.5833333333333334</t>
+  </si>
+  <si>
+    <t>USPIB: 0.0</t>
+  </si>
+  <si>
+    <t>USCOU: 1.0</t>
+  </si>
+  <si>
+    <t>USRNO: 0.9010989010989011</t>
+  </si>
+  <si>
+    <t>CAYAT: 0.0</t>
+  </si>
+  <si>
+    <t>USAMA: 0.6</t>
+  </si>
+  <si>
+    <t>USLBE: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USFWA: 0.3888888888888889</t>
+  </si>
+  <si>
+    <t>USLBF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAM: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>USBOI: 0.8083333333333333</t>
+  </si>
+  <si>
+    <t>USMDT: 0.6818181818181818</t>
+  </si>
+  <si>
+    <t>USSPS: 0.0</t>
+  </si>
+  <si>
+    <t>USLBL: 1.0</t>
+  </si>
+  <si>
+    <t>USEUG: 0.9642857142857143</t>
+  </si>
+  <si>
+    <t>CAYAG: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USLAW: 0.0</t>
+  </si>
+  <si>
+    <t>USLAX: 0.3168262653898769</t>
+  </si>
+  <si>
+    <t>USALO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYBC: 1.0</t>
+  </si>
+  <si>
+    <t>USCPR: 1.0</t>
+  </si>
+  <si>
+    <t>USLAS: 0.20714285714285716</t>
+  </si>
+  <si>
+    <t>USDRO: 1.0</t>
+  </si>
+  <si>
+    <t>USTRI: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USLBB: 0.6071428571428571</t>
+  </si>
+  <si>
+    <t>USSPI: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USALW: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAY: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYAX: 1.0</t>
+  </si>
+  <si>
+    <t>USALS: 1.0</t>
+  </si>
+  <si>
+    <t>USHGR: 0.0</t>
+  </si>
+  <si>
+    <t>USMQT: 1.0</t>
+  </si>
+  <si>
+    <t>USGEO: 1.0</t>
+  </si>
+  <si>
+    <t>USAZO: 1.0</t>
+  </si>
+  <si>
+    <t>USEAT: 0.0</t>
+  </si>
+  <si>
+    <t>USEAU: 0.0</t>
+  </si>
+  <si>
+    <t>USPWM: 0.8787878787878788</t>
+  </si>
+  <si>
+    <t>USGEG: 1.0</t>
+  </si>
+  <si>
+    <t>USMRY: 1.0</t>
+  </si>
+  <si>
+    <t>USHHN: 0.0</t>
+  </si>
+  <si>
+    <t>CAZAM: 0.0</t>
+  </si>
+  <si>
+    <t>USOWB: 0.0</t>
+  </si>
+  <si>
+    <t>USGFK: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>USJLN: 0.0</t>
+  </si>
+  <si>
+    <t>USVCT: 0.0</t>
+  </si>
+  <si>
+    <t>USPUW: 1.0</t>
+  </si>
+  <si>
+    <t>USMOT: 1.0</t>
+  </si>
+  <si>
+    <t>USGCN: 0.0</t>
+  </si>
+  <si>
+    <t>USLMT: 1.0</t>
+  </si>
+  <si>
+    <t>USGCK: 0.0</t>
+  </si>
+  <si>
+    <t>USPVC: 0.0</t>
+  </si>
+  <si>
+    <t>USBZN: 1.0</t>
+  </si>
+  <si>
+    <t>USFAR: 0.5833333333333334</t>
+  </si>
+  <si>
+    <t>USFAT: 1.0</t>
+  </si>
+  <si>
+    <t>USMOD: 0.0</t>
+  </si>
+  <si>
+    <t>USMOB: 1.0</t>
+  </si>
+  <si>
+    <t>USGCC: 1.0</t>
+  </si>
+  <si>
+    <t>USPVU: 1.0</t>
+  </si>
+  <si>
+    <t>USLNS: 0.0</t>
+  </si>
+  <si>
+    <t>USGDV: 0.0</t>
+  </si>
+  <si>
+    <t>USOTH: 1.0</t>
+  </si>
+  <si>
+    <t>USFAY: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>USPVD: 0.8596491228070176</t>
+  </si>
+  <si>
+    <t>USLNK: 1.0</t>
+  </si>
+  <si>
+    <t>USCZL: 0.0</t>
+  </si>
+  <si>
+    <t>USMMU: 0.0</t>
+  </si>
+  <si>
+    <t>USAVP: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USAVL: 0.35714285714285715</t>
+  </si>
+  <si>
+    <t>USAUS: 0.6788124156545209</t>
+  </si>
+  <si>
+    <t>USPSC: 1.0</t>
+  </si>
+  <si>
+    <t>USPSM: 0.0</t>
+  </si>
+  <si>
+    <t>USSYR: 0.8416666666666667</t>
+  </si>
+  <si>
+    <t>USPSP: 0.875</t>
+  </si>
+  <si>
+    <t>USMMH: 0.0</t>
+  </si>
+  <si>
+    <t>USHDN: 0.0</t>
+  </si>
+  <si>
+    <t>USPUB: 0.0</t>
+  </si>
+  <si>
+    <t>USJHW: 1.0</t>
+  </si>
+  <si>
+    <t>USORF: 0.9122807017543859</t>
+  </si>
+  <si>
+    <t>USORH: 1.0</t>
+  </si>
+  <si>
+    <t>USORD: 0.13493788819875777</t>
+  </si>
+  <si>
+    <t>CAYYJ: 0.9285714285714286</t>
+  </si>
+  <si>
+    <t>USTYS: 0.6544117647058824</t>
+  </si>
+  <si>
+    <t>USMKL: 0.0</t>
+  </si>
+  <si>
+    <t>CAYYH: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYG: 1.0</t>
+  </si>
+  <si>
+    <t>USRUT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYYF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYYE: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>USICT: 0.8</t>
+  </si>
+  <si>
+    <t>CAYYD: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYC: 0.2304421768707483</t>
+  </si>
+  <si>
+    <t>CAYYB: 1.0</t>
+  </si>
+  <si>
+    <t>USLIT: 0.7205882352941176</t>
+  </si>
+  <si>
+    <t>USATK: 0.0</t>
+  </si>
+  <si>
+    <t>USATL: 0.14531873355402766</t>
+  </si>
+  <si>
+    <t>USSWF: 0.6</t>
+  </si>
+  <si>
+    <t>CAYYZ: 0.31351351351351353</t>
+  </si>
+  <si>
+    <t>CAYYY: 0.7333333333333333</t>
+  </si>
+  <si>
+    <t>USBUR: 0.7575757575757576</t>
+  </si>
+  <si>
+    <t>CAYYU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYT: 0.4</t>
+  </si>
+  <si>
+    <t>USTYR: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYR: 0.2222222222222222</t>
+  </si>
+  <si>
+    <t>CAYYQ: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>USMKE: 0.9408866995073891</t>
+  </si>
+  <si>
+    <t>USPQI: 0.0</t>
+  </si>
+  <si>
+    <t>USMKG: 0.0</t>
+  </si>
+  <si>
+    <t>USAUG: 0.0</t>
+  </si>
+  <si>
+    <t>USBWI: 0.49206349206349204</t>
+  </si>
+  <si>
+    <t>USJFK: 0.4469246031746032</t>
+  </si>
+  <si>
+    <t>CAYZG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZF: 0.08823529411764706</t>
+  </si>
+  <si>
+    <t>USCYS: 0.0</t>
+  </si>
+  <si>
+    <t>USMLU: 1.0</t>
+  </si>
+  <si>
+    <t>USMLB: 1.0</t>
+  </si>
+  <si>
+    <t>USATW: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYZY: 0.0</t>
+  </si>
+  <si>
+    <t>USPRC: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZV: 0.3111111111111111</t>
+  </si>
+  <si>
+    <t>USMLI: 0.5833333333333334</t>
+  </si>
+  <si>
+    <t>CAYZT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZS: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYZR: 0.0</t>
+  </si>
+  <si>
+    <t>USIDA: 1.0</t>
+  </si>
+  <si>
+    <t>USATY: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZP: 0.0</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +3752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3081,6 +4864,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE3D-4154-877A-308C31226C5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3091,11 +4879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371888464"/>
-        <c:axId val="-1371890640"/>
+        <c:axId val="1301674720"/>
+        <c:axId val="1297996528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371888464"/>
+        <c:axId val="1301674720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +4926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371890640"/>
+        <c:crossAx val="1297996528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3146,7 +4934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371890640"/>
+        <c:axId val="1297996528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +4985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371888464"/>
+        <c:crossAx val="1301674720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3291,7 +5079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5868,6 +7655,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39C6-4A99-B740-D71CE97105E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5878,11 +7670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371870512"/>
-        <c:axId val="-1371876496"/>
+        <c:axId val="2110879360"/>
+        <c:axId val="2110885344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371870512"/>
+        <c:axId val="2110879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5925,7 +7717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371876496"/>
+        <c:crossAx val="2110885344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5933,7 +7725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371876496"/>
+        <c:axId val="2110885344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5984,7 +7776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371870512"/>
+        <c:crossAx val="2110879360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6073,7 +7865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7186,6 +8977,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0280-4F2D-A100-F4F5B98574AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7196,11 +8992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371885200"/>
-        <c:axId val="-1371866704"/>
+        <c:axId val="2110904384"/>
+        <c:axId val="2110892960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371885200"/>
+        <c:axId val="2110904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7243,7 +9039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371866704"/>
+        <c:crossAx val="2110892960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7251,7 +9047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371866704"/>
+        <c:axId val="2110892960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7302,7 +9098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371885200"/>
+        <c:crossAx val="2110904384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9975,6 +11771,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A292-486F-A62C-D1DCE3B7357C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9985,11 +11786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371887376"/>
-        <c:axId val="-1371872144"/>
+        <c:axId val="2110902208"/>
+        <c:axId val="2110906016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371887376"/>
+        <c:axId val="2110902208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10032,7 +11833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371872144"/>
+        <c:crossAx val="2110906016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10040,7 +11841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371872144"/>
+        <c:axId val="2110906016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10091,7 +11892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371887376"/>
+        <c:crossAx val="2110902208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11316,6 +13117,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9B4-40BA-8DF3-16519BEDF4F5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11326,11 +13132,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371881392"/>
-        <c:axId val="-1371886832"/>
+        <c:axId val="2110893504"/>
+        <c:axId val="2110886976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371881392"/>
+        <c:axId val="2110893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11373,7 +13179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371886832"/>
+        <c:crossAx val="2110886976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11381,7 +13187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371886832"/>
+        <c:axId val="2110886976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11432,7 +13238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371881392"/>
+        <c:crossAx val="2110893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14115,6 +15921,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB2F-4C3D-8A1D-7C200C0268AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14125,11 +15936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371867248"/>
-        <c:axId val="-1371872688"/>
+        <c:axId val="2110906560"/>
+        <c:axId val="2110887520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371867248"/>
+        <c:axId val="2110906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14172,7 +15983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371872688"/>
+        <c:crossAx val="2110887520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14180,7 +15991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371872688"/>
+        <c:axId val="2110887520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14231,7 +16042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371867248"/>
+        <c:crossAx val="2110906560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17633,7 +19444,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17663,7 +19480,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17698,7 +19521,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17728,7 +19557,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17763,7 +19598,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17793,7 +19634,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22899,7 +24746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:B592"/>
     </sheetView>
   </sheetViews>
@@ -27656,6 +29503,3033 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A595"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32409,11 +37283,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D593"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
+    <sheetView topLeftCell="A173" workbookViewId="0">
       <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>

--- a/ComplexNetwork1/src/result/sum.xlsx
+++ b/ComplexNetwork1/src/result/sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15276" windowHeight="5940" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15276" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1201">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -3626,6 +3626,9 @@
   </si>
   <si>
     <t>CAYZP</t>
+  </si>
+  <si>
+    <t>the average degree</t>
   </si>
 </sst>
 </file>
@@ -19922,65 +19925,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>10.3108108108108</v>
       </c>
     </row>
   </sheetData>
@@ -29539,7 +29551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B595"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
